--- a/data/IN/people_2013-2014.xlsx
+++ b/data/IN/people_2013-2014.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\Dropbox\Active\Forge LLC\Test\IN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\Dropbox\Active\Forge LLC\forge_code\trunk\data\IN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="188">
   <si>
     <t>sponsor_id</t>
   </si>
@@ -578,13 +578,19 @@
   </si>
   <si>
     <t>SEATCOLUMN</t>
+  </si>
+  <si>
+    <t>population_density</t>
+  </si>
+  <si>
+    <t>rural_district</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,6 +724,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1061,8 +1072,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1418,20 +1431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1528,8 +1541,14 @@
       <c r="AF1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5506</v>
       </c>
@@ -1626,8 +1645,14 @@
       <c r="AF2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="2">
+        <v>3225.3158160687221</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5529</v>
       </c>
@@ -1724,8 +1749,14 @@
       <c r="AF3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3" s="2">
+        <v>1955.8904109589041</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12223</v>
       </c>
@@ -1822,8 +1853,14 @@
       <c r="AF4">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4" s="2">
+        <v>1441.447963800905</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5493</v>
       </c>
@@ -1920,8 +1957,14 @@
       <c r="AF5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG5" s="2">
+        <v>560.43785554214787</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14189</v>
       </c>
@@ -2018,8 +2061,14 @@
       <c r="AF6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG6" s="2">
+        <v>1570.0744416873449</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5494</v>
       </c>
@@ -2116,8 +2165,14 @@
       <c r="AF7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG7" s="2">
+        <v>3803.3333333333335</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5489</v>
       </c>
@@ -2214,8 +2269,14 @@
       <c r="AF8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8" s="2">
+        <v>228.22277210942002</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5553</v>
       </c>
@@ -2312,8 +2373,14 @@
       <c r="AF9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG9" s="2">
+        <v>417.64904919807805</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5482</v>
       </c>
@@ -2410,8 +2477,14 @@
       <c r="AF10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10" s="2">
+        <v>345.64904997604987</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5532</v>
       </c>
@@ -2508,8 +2581,14 @@
       <c r="AF11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" s="2">
+        <v>1039.214433977327</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14765</v>
       </c>
@@ -2600,8 +2679,14 @@
       <c r="AD12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="2">
+        <v>165.49053356282272</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5516</v>
       </c>
@@ -2692,8 +2777,14 @@
       <c r="AD13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG13" s="2">
+        <v>3570.3542234332422</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14192</v>
       </c>
@@ -2790,8 +2881,14 @@
       <c r="AF14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG14" s="2">
+        <v>36.290752408256232</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5492</v>
       </c>
@@ -2888,8 +2985,14 @@
       <c r="AF15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15" s="2">
+        <v>1857.1428571428571</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14766</v>
       </c>
@@ -2986,8 +3089,14 @@
       <c r="AF16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="2">
+        <v>1723.618895116093</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5570</v>
       </c>
@@ -3084,8 +3193,14 @@
       <c r="AF17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="2">
+        <v>48.998578530546553</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14438</v>
       </c>
@@ -3182,8 +3297,14 @@
       <c r="AF18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="2">
+        <v>95.181540549711585</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5546</v>
       </c>
@@ -3280,8 +3401,14 @@
       <c r="AF19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" s="2">
+        <v>91.016249426613484</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5552</v>
       </c>
@@ -3372,8 +3499,14 @@
       <c r="AD20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG20" s="2">
+        <v>654.39627228525126</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5519</v>
       </c>
@@ -3470,8 +3603,14 @@
       <c r="AF21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21" s="2">
+        <v>109.92443239001757</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11394</v>
       </c>
@@ -3568,8 +3707,14 @@
       <c r="AF22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22" s="2">
+        <v>581.90301761730336</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10569</v>
       </c>
@@ -3660,8 +3805,14 @@
       <c r="AD23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23" s="2">
+        <v>165.0660725261217</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5539</v>
       </c>
@@ -3758,8 +3909,14 @@
       <c r="AF24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG24" s="2">
+        <v>119.33655915956801</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14761</v>
       </c>
@@ -3856,8 +4013,14 @@
       <c r="AF25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG25" s="2">
+        <v>612.5209861270655</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5571</v>
       </c>
@@ -3954,8 +4117,14 @@
       <c r="AF26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG26" s="2">
+        <v>70.766197491647958</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5515</v>
       </c>
@@ -4052,8 +4221,14 @@
       <c r="AF27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG27" s="2">
+        <v>834.55688246385921</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5508</v>
       </c>
@@ -4150,8 +4325,14 @@
       <c r="AF28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG28" s="2">
+        <v>2125.8474576271187</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5560</v>
       </c>
@@ -4248,8 +4429,14 @@
       <c r="AF29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG29" s="2">
+        <v>187.80817972350232</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5544</v>
       </c>
@@ -4346,8 +4533,14 @@
       <c r="AF30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG30" s="2">
+        <v>561.5861951717103</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10578</v>
       </c>
@@ -4444,8 +4637,14 @@
       <c r="AF31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG31" s="2">
+        <v>337.34063796016591</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10575</v>
       </c>
@@ -4542,8 +4741,14 @@
       <c r="AF32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG32" s="2">
+        <v>146.40708366443411</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5559</v>
       </c>
@@ -4634,8 +4839,14 @@
       <c r="AD33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG33" s="2">
+        <v>91.182399107946992</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5561</v>
       </c>
@@ -4726,8 +4937,14 @@
       <c r="AD34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG34" s="2">
+        <v>65.629217783686869</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5624</v>
       </c>
@@ -4824,8 +5041,14 @@
       <c r="AF35">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG35" s="2">
+        <v>2503.2308291163872</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5564</v>
       </c>
@@ -4916,8 +5139,14 @@
       <c r="AD36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG36" s="2">
+        <v>208.30542531815144</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5499</v>
       </c>
@@ -5014,8 +5243,14 @@
       <c r="AF37">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG37" s="2">
+        <v>850.13806706114406</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14439</v>
       </c>
@@ -5112,8 +5347,14 @@
       <c r="AF38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG38" s="2">
+        <v>1715.9264931087289</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10577</v>
       </c>
@@ -5210,8 +5451,14 @@
       <c r="AF39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG39" s="2">
+        <v>84.453687787852147</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5509</v>
       </c>
@@ -5308,8 +5555,14 @@
       <c r="AF40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG40" s="2">
+        <v>1920.053238686779</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5502</v>
       </c>
@@ -5406,8 +5659,14 @@
       <c r="AF41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG41" s="2">
+        <v>1248.5231283670817</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5524</v>
       </c>
@@ -5504,8 +5763,14 @@
       <c r="AF42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG42" s="2">
+        <v>86.012392928740667</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14443</v>
       </c>
@@ -5602,8 +5867,14 @@
       <c r="AF43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG43" s="2">
+        <v>71.190999148325787</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5498</v>
       </c>
@@ -5700,8 +5971,14 @@
       <c r="AF44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG44" s="2">
+        <v>647.82778864970646</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10818</v>
       </c>
@@ -5798,8 +6075,14 @@
       <c r="AF45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG45" s="2">
+        <v>72.390953512350379</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5563</v>
       </c>
@@ -5890,8 +6173,14 @@
       <c r="AD46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG46" s="2">
+        <v>71.950715935850369</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10574</v>
       </c>
@@ -5988,8 +6277,14 @@
       <c r="AF47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG47" s="2">
+        <v>94.175462028716197</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14445</v>
       </c>
@@ -6086,8 +6381,14 @@
       <c r="AF48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG48" s="2">
+        <v>308.08317332459137</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5512</v>
       </c>
@@ -6178,8 +6479,14 @@
       <c r="AD49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG49" s="2">
+        <v>850.61679790026244</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5513</v>
       </c>
@@ -6276,8 +6583,14 @@
       <c r="AF50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG50" s="2">
+        <v>381.26290941280615</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5510</v>
       </c>
@@ -6374,8 +6687,14 @@
       <c r="AF51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG51" s="2">
+        <v>115.98528065356714</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14768</v>
       </c>
@@ -6472,8 +6791,14 @@
       <c r="AF52">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG52" s="2">
+        <v>107.59067742095107</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14447</v>
       </c>
@@ -6570,8 +6895,14 @@
       <c r="AF53">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG53" s="2">
+        <v>148.61082806874532</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5527</v>
       </c>
@@ -6668,8 +6999,14 @@
       <c r="AF54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG54" s="2">
+        <v>205.43578054262829</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5537</v>
       </c>
@@ -6766,8 +7103,14 @@
       <c r="AF55">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG55" s="2">
+        <v>110.01587408808433</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14767</v>
       </c>
@@ -6864,8 +7207,14 @@
       <c r="AF56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG56" s="2">
+        <v>79.015716973117293</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14437</v>
       </c>
@@ -6962,8 +7311,14 @@
       <c r="AF57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG57" s="2">
+        <v>180.06082759005554</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5573</v>
       </c>
@@ -7060,8 +7415,14 @@
       <c r="AF58">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG58" s="2">
+        <v>113.92783106707424</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5536</v>
       </c>
@@ -7158,8 +7519,14 @@
       <c r="AF59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG59" s="2">
+        <v>884.64043419267296</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10584</v>
       </c>
@@ -7256,8 +7623,14 @@
       <c r="AF60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG60" s="2">
+        <v>256.48553727161516</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14441</v>
       </c>
@@ -7354,8 +7727,14 @@
       <c r="AF61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG61" s="2">
+        <v>187.97268459240291</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5549</v>
       </c>
@@ -7452,8 +7831,14 @@
       <c r="AF62">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG62" s="2">
+        <v>2020.6172839506173</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10579</v>
       </c>
@@ -7550,8 +7935,14 @@
       <c r="AF63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG63" s="2">
+        <v>76.775383280300844</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5541</v>
       </c>
@@ -7642,8 +8033,14 @@
       <c r="AD64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG64" s="2">
+        <v>81.16077812569344</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14448</v>
       </c>
@@ -7740,8 +8137,14 @@
       <c r="AF65">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG65" s="2">
+        <v>66.340901679439099</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5483</v>
       </c>
@@ -7838,8 +8241,14 @@
       <c r="AF66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG66" s="2">
+        <v>74.255238358245023</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5528</v>
       </c>
@@ -7936,8 +8345,14 @@
       <c r="AF67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG67" s="2">
+        <v>142.27939575987114</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10570</v>
       </c>
@@ -8034,8 +8449,14 @@
       <c r="AF68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG68" s="2">
+        <v>51.737912218074285</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10572</v>
       </c>
@@ -8132,8 +8553,14 @@
       <c r="AF69">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG69" s="2">
+        <v>91.345402910898116</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14764</v>
       </c>
@@ -8230,8 +8657,14 @@
       <c r="AF70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG70" s="2">
+        <v>108.13484120629838</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10573</v>
       </c>
@@ -8328,8 +8761,14 @@
       <c r="AF71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG71" s="2">
+        <v>110.77965985929923</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5568</v>
       </c>
@@ -8426,8 +8865,14 @@
       <c r="AF72">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG72" s="2">
+        <v>1358.6843743515253</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5514</v>
       </c>
@@ -8524,8 +8969,14 @@
       <c r="AF73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG73" s="2">
+        <v>726.66297731045938</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10571</v>
       </c>
@@ -8622,8 +9073,14 @@
       <c r="AF74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG74" s="2">
+        <v>57.85762896420308</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11398</v>
       </c>
@@ -8720,8 +9177,14 @@
       <c r="AF75">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG75" s="2">
+        <v>51.730456840605918</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10568</v>
       </c>
@@ -8818,8 +9281,14 @@
       <c r="AF76">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG76" s="2">
+        <v>84.691228530221579</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11298</v>
       </c>
@@ -8916,8 +9385,14 @@
       <c r="AF77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG77" s="2">
+        <v>162.93963519097048</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5500</v>
       </c>
@@ -9014,8 +9489,14 @@
       <c r="AF78">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG78" s="2">
+        <v>2478.1923076923076</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5547</v>
       </c>
@@ -9106,8 +9587,14 @@
       <c r="AD79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG79" s="2">
+        <v>1249.1744163977985</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5557</v>
       </c>
@@ -9204,8 +9691,14 @@
       <c r="AF80">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG80" s="2">
+        <v>103.99037848859437</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5569</v>
       </c>
@@ -9302,8 +9795,14 @@
       <c r="AF81">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG81" s="2">
+        <v>3640.5283867341213</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>14762</v>
       </c>
@@ -9400,8 +9899,14 @@
       <c r="AF82">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG82" s="2">
+        <v>1480.659090909091</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>14444</v>
       </c>
@@ -9498,8 +10003,14 @@
       <c r="AF83">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG83" s="2">
+        <v>110.3080831330026</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10816</v>
       </c>
@@ -9590,8 +10101,14 @@
       <c r="AD84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG84" s="2">
+        <v>192.3913363783704</v>
+      </c>
+      <c r="AH84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10576</v>
       </c>
@@ -9688,8 +10205,14 @@
       <c r="AF85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG85" s="2">
+        <v>1932.0141760189015</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5521</v>
       </c>
@@ -9780,8 +10303,14 @@
       <c r="AD86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG86" s="2">
+        <v>270.93761520501374</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5533</v>
       </c>
@@ -9878,8 +10407,14 @@
       <c r="AF87">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG87" s="2">
+        <v>1709.4712525667351</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14436</v>
       </c>
@@ -9976,8 +10511,14 @@
       <c r="AF88">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG88" s="2">
+        <v>2195.8404950154691</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5497</v>
       </c>
@@ -10068,8 +10609,14 @@
       <c r="AD89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG89" s="2">
+        <v>660.68944963242598</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11395</v>
       </c>
@@ -10166,8 +10713,14 @@
       <c r="AF90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG90" s="2">
+        <v>1816.413043478261</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11396</v>
       </c>
@@ -10264,8 +10817,14 @@
       <c r="AF91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG91" s="2">
+        <v>1455.2972143013817</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5567</v>
       </c>
@@ -10362,8 +10921,14 @@
       <c r="AF92">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG92" s="2">
+        <v>786.98246032692998</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14440</v>
       </c>
@@ -10460,8 +11025,14 @@
       <c r="AF93">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG93" s="2">
+        <v>3271.7664092664095</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5565</v>
       </c>
@@ -10558,8 +11129,14 @@
       <c r="AF94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG94" s="2">
+        <v>2148.2701264138395</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5543</v>
       </c>
@@ -10656,8 +11233,14 @@
       <c r="AF95">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG95" s="2">
+        <v>3888.6512180629838</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5556</v>
       </c>
@@ -10754,8 +11337,14 @@
       <c r="AF96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG96" s="2">
+        <v>2822.6678291194416</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5566</v>
       </c>
@@ -10852,8 +11441,14 @@
       <c r="AF97">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG97" s="2">
+        <v>3396.2848297213632</v>
+      </c>
+      <c r="AH97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14442</v>
       </c>
@@ -10950,8 +11545,14 @@
       <c r="AF98">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG98" s="2">
+        <v>2358.7956204379561</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>14446</v>
       </c>
@@ -11048,8 +11649,14 @@
       <c r="AF99">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG99" s="2">
+        <v>3231.1817279046672</v>
+      </c>
+      <c r="AH99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5518</v>
       </c>
@@ -11146,8 +11753,14 @@
       <c r="AF100">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG100" s="2">
+        <v>3217.4737893160259</v>
+      </c>
+      <c r="AH100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>14191</v>
       </c>
@@ -11243,6 +11856,12 @@
       </c>
       <c r="AF101">
         <v>11</v>
+      </c>
+      <c r="AG101" s="2">
+        <v>4090.1774397972126</v>
+      </c>
+      <c r="AH101" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
